--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gitstuff\TMS\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79981BB-8591-41E7-8EF4-344F04BB7BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3EBED1-13B1-44E5-8C9B-E60C201714F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4687" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5022" uniqueCount="284">
   <si>
     <t>testname</t>
   </si>
@@ -764,9 +764,6 @@
     <t>98985235</t>
   </si>
   <si>
-    <t>1985-10-07</t>
-  </si>
-  <si>
     <t>Alpha Pvt Ltd</t>
   </si>
   <si>
@@ -776,9 +773,6 @@
     <t>Tester1</t>
   </si>
   <si>
-    <t>tester1@mailinator.com</t>
-  </si>
-  <si>
     <t>25252523</t>
   </si>
   <si>
@@ -797,9 +791,6 @@
     <t>598</t>
   </si>
   <si>
-    <t>Vegan</t>
-  </si>
-  <si>
     <t>Yang Ping</t>
   </si>
   <si>
@@ -812,7 +803,76 @@
     <t>tester notes</t>
   </si>
   <si>
-    <t>S5753402B</t>
+    <t>Ping Ping</t>
+  </si>
+  <si>
+    <t>tester22@mailinator.com</t>
+  </si>
+  <si>
+    <t>American Pizza</t>
+  </si>
+  <si>
+    <t>S5753402C</t>
+  </si>
+  <si>
+    <t>1988-11-08</t>
+  </si>
+  <si>
+    <t>EditCourseSoftBookingsRecordTest</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>2021-19-11</t>
+  </si>
+  <si>
+    <t>25242628</t>
+  </si>
+  <si>
+    <t>automation@mailinator.com</t>
+  </si>
+  <si>
+    <t>S5753402D</t>
+  </si>
+  <si>
+    <t>ViewNotesofCourseSoftBookingsTest</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>AddnewWaitingListRecordTest</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Automation Waiting</t>
+  </si>
+  <si>
+    <t>87654321</t>
+  </si>
+  <si>
+    <t>waitinglist@mailinator.com</t>
+  </si>
+  <si>
+    <t>S5753402E</t>
+  </si>
+  <si>
+    <t>Waiting List Notes</t>
+  </si>
+  <si>
+    <t>ClickonEnrolStudentfromListdotsinWaitingListtab</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>EditWaitingListRecordTest</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
 </sst>
 </file>
@@ -862,12 +922,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2118,12 +2179,97 @@
         <v>169</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>243</v>
       </c>
       <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>265</v>
+      </c>
+      <c r="B58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>271</v>
+      </c>
+      <c r="B59" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>273</v>
+      </c>
+      <c r="B60" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B62" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2135,11 +2281,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BJ71"/>
+  <dimension ref="A1:BJ76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BI60" sqref="BI60"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -15332,7 +15478,7 @@
         <v>242</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="C71" t="s">
         <v>81</v>
@@ -15428,58 +15574,58 @@
         <v>246</v>
       </c>
       <c r="AH71" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI71" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="AI71" s="3" t="s">
+      <c r="AJ71" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AJ71" s="3" t="s">
+      <c r="AK71" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="AK71" s="3" t="s">
+      <c r="AL71" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM71" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="AL71" s="3" t="s">
+      <c r="AN71" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="AM71" s="3" t="s">
+      <c r="AO71" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="AN71" s="3" t="s">
+      <c r="AP71" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="AO71" s="3" t="s">
+      <c r="AQ71" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AP71" s="3" t="s">
+      <c r="AR71" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="AQ71" s="3" t="s">
+      <c r="AS71" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AT71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU71" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV71" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW71" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX71" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AY71" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="AR71" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AS71" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AT71" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU71" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="AV71" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AW71" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="AX71" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AY71" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="AZ71" s="3" t="s">
         <v>263</v>
@@ -15512,6 +15658,946 @@
         <v>84</v>
       </c>
       <c r="BJ71" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:62">
+      <c r="A72" t="s">
+        <v>265</v>
+      </c>
+      <c r="B72" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F72" t="s">
+        <v>139</v>
+      </c>
+      <c r="G72" t="s">
+        <v>142</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF72" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT72" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AU72" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV72" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW72" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AX72" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="AY72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ72" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="BA72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ72" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:62">
+      <c r="A73" t="s">
+        <v>271</v>
+      </c>
+      <c r="B73" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F73" t="s">
+        <v>139</v>
+      </c>
+      <c r="G73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF73" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ73" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:62">
+      <c r="A74" t="s">
+        <v>273</v>
+      </c>
+      <c r="B74" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F74" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF74" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU74" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AV74" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AW74" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX74" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ74" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="BA74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ74" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:62">
+      <c r="A75" t="s">
+        <v>280</v>
+      </c>
+      <c r="B75" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75" t="s">
+        <v>143</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE75" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF75" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG75" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH75" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI75" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ75" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK75" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL75" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM75" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AN75" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AO75" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AP75" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ75" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR75" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS75" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AT75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU75" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV75" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW75" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX75" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AY75" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ75" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ75" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:62">
+      <c r="A76" t="s">
+        <v>282</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F76" t="s">
+        <v>139</v>
+      </c>
+      <c r="G76" t="s">
+        <v>143</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF76" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU76" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AV76" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AW76" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX76" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ76" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="BA76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ76" s="3" t="s">
         <v>84</v>
       </c>
     </row>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gitstuff\TMS\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3EBED1-13B1-44E5-8C9B-E60C201714F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E310EA7E-1940-46DB-BB23-C4B3744D3A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5022" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5686" uniqueCount="343">
   <si>
     <t>testname</t>
   </si>
@@ -873,6 +873,183 @@
   </si>
   <si>
     <t>61</t>
+  </si>
+  <si>
+    <t>AddnewManagerRecordTest</t>
+  </si>
+  <si>
+    <t>Verify that AddnewManagersRecordTest working or not</t>
+  </si>
+  <si>
+    <t>EditManagerRecordTest</t>
+  </si>
+  <si>
+    <t>Verify that EditManagersRecordTest working or not</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>AddnewRecordTest</t>
+  </si>
+  <si>
+    <t>Verify that AddnewRecordTest working or not</t>
+  </si>
+  <si>
+    <t>EditRecordTest</t>
+  </si>
+  <si>
+    <t>Verify that EditRecordTest working or not</t>
+  </si>
+  <si>
+    <t>AddnewTrainerRecordTest</t>
+  </si>
+  <si>
+    <t>Verify that AddnewTrainerRecordTest working or not</t>
+  </si>
+  <si>
+    <t>EditTrainerRecordTest</t>
+  </si>
+  <si>
+    <t>Verify that EditTrainerRecordTest working or not</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Autmation manager</t>
+  </si>
+  <si>
+    <t>automationmanager11@mailinator.com</t>
+  </si>
+  <si>
+    <t>2525421252</t>
+  </si>
+  <si>
+    <t>ie</t>
+  </si>
+  <si>
+    <t>EditManagersRecord</t>
+  </si>
+  <si>
+    <t>9853322523</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>Automation Tester</t>
+  </si>
+  <si>
+    <t>automation25@mailinator.com</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t>testing@test.com</t>
+  </si>
+  <si>
+    <t>9858545252</t>
+  </si>
+  <si>
+    <t>Recordaddtesting123</t>
+  </si>
+  <si>
+    <t>recordtesting1223@mailinator.com</t>
+  </si>
+  <si>
+    <t>888121252</t>
+  </si>
+  <si>
+    <t>Trainer testing Experience</t>
+  </si>
+  <si>
+    <t>Linkedin learning courses</t>
+  </si>
+  <si>
+    <t>Details of the trainer regarding courses</t>
+  </si>
+  <si>
+    <t>trainer are located in mailinator</t>
+  </si>
+  <si>
+    <t>Editrecordtesting</t>
+  </si>
+  <si>
+    <t>editrecord12@mailinator.com</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>testing testing</t>
+  </si>
+  <si>
+    <t>test.com</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>AddnewVenueRecordTest</t>
+  </si>
+  <si>
+    <t>Verify that AddnewVenueRecordTest working or not</t>
+  </si>
+  <si>
+    <t>EditVenueRecordTest</t>
+  </si>
+  <si>
+    <t>Verify that EditVenueRecordTest working or not</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>AugustTesting</t>
+  </si>
+  <si>
+    <t>August Floor</t>
+  </si>
+  <si>
+    <t>August Unit</t>
+  </si>
+  <si>
+    <t>AugustBuliding</t>
+  </si>
+  <si>
+    <t>August Room</t>
+  </si>
+  <si>
+    <t>654321</t>
+  </si>
+  <si>
+    <t>Edit Automation</t>
+  </si>
+  <si>
+    <t>987654</t>
   </si>
 </sst>
 </file>
@@ -1204,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2264,12 +2441,148 @@
         <v>169</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>283</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63" t="s">
+        <v>285</v>
+      </c>
+      <c r="C63" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>286</v>
+      </c>
+      <c r="B64" t="s">
+        <v>287</v>
+      </c>
+      <c r="C64" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>290</v>
+      </c>
+      <c r="B65" t="s">
+        <v>291</v>
+      </c>
+      <c r="C65" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>292</v>
+      </c>
+      <c r="B66" t="s">
+        <v>293</v>
+      </c>
+      <c r="C66" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>294</v>
+      </c>
+      <c r="B67" t="s">
+        <v>295</v>
+      </c>
+      <c r="C67" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>296</v>
+      </c>
+      <c r="B68" t="s">
+        <v>297</v>
+      </c>
+      <c r="C68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>329</v>
+      </c>
+      <c r="B69" t="s">
+        <v>330</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>331</v>
+      </c>
+      <c r="B70" t="s">
+        <v>332</v>
+      </c>
+      <c r="C70" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2281,10 +2594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BJ76"/>
+  <dimension ref="A1:EP86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
@@ -14345,7 +14658,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:62">
+    <row r="65" spans="1:146">
       <c r="A65" s="3" t="s">
         <v>224</v>
       </c>
@@ -14533,7 +14846,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:62">
+    <row r="66" spans="1:146">
       <c r="A66" s="3" t="s">
         <v>225</v>
       </c>
@@ -14721,7 +15034,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:62">
+    <row r="67" spans="1:146">
       <c r="A67" s="3" t="s">
         <v>226</v>
       </c>
@@ -14909,7 +15222,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:62">
+    <row r="68" spans="1:146">
       <c r="A68" s="3" t="s">
         <v>227</v>
       </c>
@@ -15097,7 +15410,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:62">
+    <row r="69" spans="1:146">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -15285,7 +15598,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:62">
+    <row r="70" spans="1:146">
       <c r="A70" t="s">
         <v>234</v>
       </c>
@@ -15473,7 +15786,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:62">
+    <row r="71" spans="1:146">
       <c r="A71" t="s">
         <v>242</v>
       </c>
@@ -15661,7 +15974,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:62">
+    <row r="72" spans="1:146">
       <c r="A72" t="s">
         <v>265</v>
       </c>
@@ -15849,7 +16162,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:62">
+    <row r="73" spans="1:146">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -16037,7 +16350,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:62">
+    <row r="74" spans="1:146">
       <c r="A74" t="s">
         <v>273</v>
       </c>
@@ -16225,7 +16538,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:62">
+    <row r="75" spans="1:146">
       <c r="A75" t="s">
         <v>280</v>
       </c>
@@ -16413,12 +16726,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:62">
+    <row r="76" spans="1:146">
       <c r="A76" t="s">
         <v>282</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="C76" t="s">
         <v>81</v>
@@ -16601,7 +16914,1904 @@
         <v>84</v>
       </c>
     </row>
+    <row r="77" spans="1:146">
+      <c r="A77" t="s">
+        <v>284</v>
+      </c>
+      <c r="B77" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F77" t="s">
+        <v>126</v>
+      </c>
+      <c r="G77" t="s">
+        <v>135</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K77" t="s">
+        <v>302</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="EP77" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:146">
+      <c r="A78" t="s">
+        <v>286</v>
+      </c>
+      <c r="B78" t="s">
+        <v>195</v>
+      </c>
+      <c r="C78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" t="s">
+        <v>126</v>
+      </c>
+      <c r="G78" t="s">
+        <v>135</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K78" t="s">
+        <v>306</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="EP78" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:146">
+      <c r="A79" t="s">
+        <v>290</v>
+      </c>
+      <c r="B79" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F79" t="s">
+        <v>126</v>
+      </c>
+      <c r="G79" t="s">
+        <v>128</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K79" t="s">
+        <v>309</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ79" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:146">
+      <c r="A80" t="s">
+        <v>290</v>
+      </c>
+      <c r="B80" t="s">
+        <v>195</v>
+      </c>
+      <c r="C80" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F80" t="s">
+        <v>126</v>
+      </c>
+      <c r="G80" t="s">
+        <v>128</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ80" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:146">
+      <c r="A81" t="s">
+        <v>290</v>
+      </c>
+      <c r="B81" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F81" t="s">
+        <v>126</v>
+      </c>
+      <c r="G81" t="s">
+        <v>128</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ81" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:146">
+      <c r="A82" t="s">
+        <v>292</v>
+      </c>
+      <c r="B82" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F82" t="s">
+        <v>126</v>
+      </c>
+      <c r="G82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K82" t="s">
+        <v>241</v>
+      </c>
+      <c r="L82" t="s">
+        <v>313</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ82" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:146">
+      <c r="A83" t="s">
+        <v>294</v>
+      </c>
+      <c r="B83" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G83" t="s">
+        <v>127</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K83" t="s">
+        <v>315</v>
+      </c>
+      <c r="L83" t="s">
+        <v>316</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N83" t="s">
+        <v>318</v>
+      </c>
+      <c r="O83" t="s">
+        <v>319</v>
+      </c>
+      <c r="P83" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>321</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="EP83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:146">
+      <c r="A84" t="s">
+        <v>296</v>
+      </c>
+      <c r="B84" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F84" t="s">
+        <v>126</v>
+      </c>
+      <c r="G84" t="s">
+        <v>127</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K84" t="s">
+        <v>322</v>
+      </c>
+      <c r="L84" t="s">
+        <v>323</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="N84" t="s">
+        <v>325</v>
+      </c>
+      <c r="O84" t="s">
+        <v>326</v>
+      </c>
+      <c r="P84" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>327</v>
+      </c>
+      <c r="R84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="EP84" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:146">
+      <c r="A85" t="s">
+        <v>329</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85" t="s">
+        <v>125</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R85" t="s">
+        <v>335</v>
+      </c>
+      <c r="S85" t="s">
+        <v>335</v>
+      </c>
+      <c r="T85" t="s">
+        <v>336</v>
+      </c>
+      <c r="U85" t="s">
+        <v>337</v>
+      </c>
+      <c r="V85" t="s">
+        <v>338</v>
+      </c>
+      <c r="W85" t="s">
+        <v>339</v>
+      </c>
+      <c r="X85" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ85" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:146">
+      <c r="A86" t="s">
+        <v>331</v>
+      </c>
+      <c r="B86" t="s">
+        <v>195</v>
+      </c>
+      <c r="C86" t="s">
+        <v>81</v>
+      </c>
+      <c r="D86" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F86" t="s">
+        <v>125</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R86" t="s">
+        <v>341</v>
+      </c>
+      <c r="S86" t="s">
+        <v>341</v>
+      </c>
+      <c r="T86" t="s">
+        <v>341</v>
+      </c>
+      <c r="U86" t="s">
+        <v>341</v>
+      </c>
+      <c r="V86" t="s">
+        <v>341</v>
+      </c>
+      <c r="W86" t="s">
+        <v>341</v>
+      </c>
+      <c r="X86" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ86" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EP77:EP78 EP83:EP84" xr:uid="{0B9943E6-E268-434F-9E4C-123BB136FD63}">
+      <formula1>$EP$45:$EP$48</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gitstuff\TMS\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E310EA7E-1940-46DB-BB23-C4B3744D3A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D7AD03-02BA-4CA3-8DA4-4ABE8CACA384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5686" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5753" uniqueCount="346">
   <si>
     <t>testname</t>
   </si>
@@ -1050,6 +1050,15 @@
   </si>
   <si>
     <t>987654</t>
+  </si>
+  <si>
+    <t>FilterBydate</t>
+  </si>
+  <si>
+    <t>Verify filter finctionality</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
 </sst>
 </file>
@@ -1381,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2560,7 +2569,7 @@
         <v>330</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>333</v>
@@ -2583,6 +2592,23 @@
         <v>334</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>343</v>
+      </c>
+      <c r="B71" t="s">
+        <v>344</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2594,11 +2620,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:EP86"/>
+  <dimension ref="A1:EI87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -14658,7 +14684,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:146">
+    <row r="65" spans="1:139">
       <c r="A65" s="3" t="s">
         <v>224</v>
       </c>
@@ -14846,7 +14872,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:146">
+    <row r="66" spans="1:139">
       <c r="A66" s="3" t="s">
         <v>225</v>
       </c>
@@ -15034,7 +15060,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:146">
+    <row r="67" spans="1:139">
       <c r="A67" s="3" t="s">
         <v>226</v>
       </c>
@@ -15222,7 +15248,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:146">
+    <row r="68" spans="1:139">
       <c r="A68" s="3" t="s">
         <v>227</v>
       </c>
@@ -15410,7 +15436,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:146">
+    <row r="69" spans="1:139">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -15598,7 +15624,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:146">
+    <row r="70" spans="1:139">
       <c r="A70" t="s">
         <v>234</v>
       </c>
@@ -15786,7 +15812,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:146">
+    <row r="71" spans="1:139">
       <c r="A71" t="s">
         <v>242</v>
       </c>
@@ -15974,7 +16000,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:146">
+    <row r="72" spans="1:139">
       <c r="A72" t="s">
         <v>265</v>
       </c>
@@ -16162,7 +16188,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:146">
+    <row r="73" spans="1:139">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -16350,7 +16376,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:146">
+    <row r="74" spans="1:139">
       <c r="A74" t="s">
         <v>273</v>
       </c>
@@ -16538,7 +16564,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:146">
+    <row r="75" spans="1:139">
       <c r="A75" t="s">
         <v>280</v>
       </c>
@@ -16726,7 +16752,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:146">
+    <row r="76" spans="1:139">
       <c r="A76" t="s">
         <v>282</v>
       </c>
@@ -16914,7 +16940,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:146">
+    <row r="77" spans="1:139">
       <c r="A77" t="s">
         <v>284</v>
       </c>
@@ -17101,11 +17127,11 @@
       <c r="BJ77" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="EP77" t="s">
+      <c r="EI77" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:146">
+    <row r="78" spans="1:139">
       <c r="A78" t="s">
         <v>286</v>
       </c>
@@ -17292,11 +17318,11 @@
       <c r="BJ78" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="EP78" t="s">
+      <c r="EI78" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="79" spans="1:146">
+    <row r="79" spans="1:139">
       <c r="A79" t="s">
         <v>290</v>
       </c>
@@ -17484,7 +17510,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:146">
+    <row r="80" spans="1:139">
       <c r="A80" t="s">
         <v>290</v>
       </c>
@@ -17672,7 +17698,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:146">
+    <row r="81" spans="1:139">
       <c r="A81" t="s">
         <v>290</v>
       </c>
@@ -17860,7 +17886,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:146">
+    <row r="82" spans="1:139">
       <c r="A82" t="s">
         <v>292</v>
       </c>
@@ -18048,7 +18074,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:146">
+    <row r="83" spans="1:139">
       <c r="A83" t="s">
         <v>294</v>
       </c>
@@ -18235,11 +18261,11 @@
       <c r="BJ83" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="EP83" t="s">
+      <c r="EI83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:146">
+    <row r="84" spans="1:139">
       <c r="A84" t="s">
         <v>296</v>
       </c>
@@ -18426,16 +18452,16 @@
       <c r="BJ84" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="EP84" t="s">
+      <c r="EI84" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="85" spans="1:146">
+    <row r="85" spans="1:139">
       <c r="A85" t="s">
         <v>329</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="C85" t="s">
         <v>81</v>
@@ -18618,7 +18644,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:146">
+    <row r="86" spans="1:139">
       <c r="A86" t="s">
         <v>331</v>
       </c>
@@ -18803,13 +18829,201 @@
         <v>84</v>
       </c>
       <c r="BJ86" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:139">
+      <c r="A87" t="s">
+        <v>343</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F87" t="s">
+        <v>130</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ87" s="3" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EP77:EP78 EP83:EP84" xr:uid="{0B9943E6-E268-434F-9E4C-123BB136FD63}">
-      <formula1>$EP$45:$EP$48</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EI77:EI78 EI83:EI84" xr:uid="{0B9943E6-E268-434F-9E4C-123BB136FD63}">
+      <formula1>$EI$45:$EI$48</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gitstuff\TMS\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D7AD03-02BA-4CA3-8DA4-4ABE8CACA384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EF15D9-15A5-4E91-9D24-636BD53291A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5753" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6088" uniqueCount="361">
   <si>
     <t>testname</t>
   </si>
@@ -1059,6 +1059,51 @@
   </si>
   <si>
     <t>70</t>
+  </si>
+  <si>
+    <t>AccessTraineeListTab</t>
+  </si>
+  <si>
+    <t>Verify user is able to access trainee list tab</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>AccessSoftBookingsTab</t>
+  </si>
+  <si>
+    <t>AccessWaitingListTab</t>
+  </si>
+  <si>
+    <t>AccessPaymentsListTab</t>
+  </si>
+  <si>
+    <t>AccessRefershersTab</t>
+  </si>
+  <si>
+    <t>Verify user is able to access SoftBookingsTab</t>
+  </si>
+  <si>
+    <t>Verify user is able to access WaitingListTab</t>
+  </si>
+  <si>
+    <t>Verify user is able to access PaymentsListTab</t>
+  </si>
+  <si>
+    <t>Verify user is able to access RefershersTab</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
   </si>
 </sst>
 </file>
@@ -1390,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68:C70"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2603,12 +2648,97 @@
         <v>344</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>345</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>346</v>
+      </c>
+      <c r="B72" t="s">
+        <v>347</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>349</v>
+      </c>
+      <c r="B73" t="s">
+        <v>353</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>350</v>
+      </c>
+      <c r="B74" t="s">
+        <v>354</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>351</v>
+      </c>
+      <c r="B75" t="s">
+        <v>355</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>352</v>
+      </c>
+      <c r="B76" t="s">
+        <v>356</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2620,11 +2750,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:EI87"/>
+  <dimension ref="A1:EI92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -18837,7 +18967,7 @@
         <v>343</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="C87" t="s">
         <v>81</v>
@@ -19017,6 +19147,946 @@
         <v>84</v>
       </c>
       <c r="BJ87" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:139">
+      <c r="A88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F88" t="s">
+        <v>133</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ88" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:139">
+      <c r="A89" t="s">
+        <v>349</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F89" t="s">
+        <v>133</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ89" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:139">
+      <c r="A90" t="s">
+        <v>350</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" t="s">
+        <v>82</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F90" t="s">
+        <v>133</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ90" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:139">
+      <c r="A91" t="s">
+        <v>351</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>81</v>
+      </c>
+      <c r="D91" t="s">
+        <v>82</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F91" t="s">
+        <v>133</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ91" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:139">
+      <c r="A92" t="s">
+        <v>352</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>81</v>
+      </c>
+      <c r="D92" t="s">
+        <v>82</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F92" t="s">
+        <v>133</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ92" s="3" t="s">
         <v>84</v>
       </c>
     </row>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gitstuff\TMS\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EF15D9-15A5-4E91-9D24-636BD53291A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B021B6D-43AC-4F61-AA66-E8F0096A0579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6088" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6155" uniqueCount="379">
   <si>
     <t>testname</t>
   </si>
@@ -1104,6 +1104,60 @@
   </si>
   <si>
     <t>75</t>
+  </si>
+  <si>
+    <t>AddStudentEnrollmentRecordTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add student enrollment record in TMS application</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Digital Marketing 1</t>
+  </si>
+  <si>
+    <t>Ronald Christian</t>
+  </si>
+  <si>
+    <t>S3010700D</t>
+  </si>
+  <si>
+    <t>65253625</t>
+  </si>
+  <si>
+    <t>ronald@mailinator.com</t>
+  </si>
+  <si>
+    <t>10/10/1998</t>
+  </si>
+  <si>
+    <t>2Stallions</t>
+  </si>
+  <si>
+    <t>Roma Edward</t>
+  </si>
+  <si>
+    <t>romaedward@mailinator.com</t>
+  </si>
+  <si>
+    <t>85956525</t>
+  </si>
+  <si>
+    <t>edward@mailinator.com</t>
+  </si>
+  <si>
+    <t>256521</t>
+  </si>
+  <si>
+    <t>Testing Student Enrollment</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1435,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:A76"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2665,7 +2719,7 @@
         <v>347</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>348</v>
@@ -2682,7 +2736,7 @@
         <v>353</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>357</v>
@@ -2699,7 +2753,7 @@
         <v>354</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>358</v>
@@ -2716,7 +2770,7 @@
         <v>355</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>359</v>
@@ -2733,12 +2787,29 @@
         <v>356</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>360</v>
       </c>
       <c r="E76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>361</v>
+      </c>
+      <c r="B77" t="s">
+        <v>362</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2750,11 +2821,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:EI92"/>
+  <dimension ref="A1:EI93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL93" sqref="AL93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -19155,7 +19226,7 @@
         <v>346</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="C88" t="s">
         <v>81</v>
@@ -19343,7 +19414,7 @@
         <v>349</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="C89" t="s">
         <v>81</v>
@@ -19531,7 +19602,7 @@
         <v>350</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="C90" t="s">
         <v>81</v>
@@ -19719,7 +19790,7 @@
         <v>351</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="C91" t="s">
         <v>81</v>
@@ -19907,7 +19978,7 @@
         <v>352</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="C92" t="s">
         <v>81</v>
@@ -20087,6 +20158,194 @@
         <v>84</v>
       </c>
       <c r="BJ92" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:139">
+      <c r="A93" t="s">
+        <v>361</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>81</v>
+      </c>
+      <c r="D93" t="s">
+        <v>82</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F93" t="s">
+        <v>130</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD93" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE93" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF93" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG93" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH93" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AI93" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="AJ93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK93" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL93" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AM93" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="AN93" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AO93" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP93" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ93" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AR93" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AS93" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AT93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY93" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ93" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="BA93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ93" s="3" t="s">
         <v>84</v>
       </c>
     </row>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gitstuff\TMS\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B021B6D-43AC-4F61-AA66-E8F0096A0579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086759DB-DC87-4152-B064-63BE3D2693C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6155" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7250" uniqueCount="423">
   <si>
     <t>testname</t>
   </si>
@@ -1158,6 +1158,138 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>EditStudentEnrollmentRecordTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to edit student enrollment record in TMS application</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>DDD2523</t>
+  </si>
+  <si>
+    <t>Der2523</t>
+  </si>
+  <si>
+    <t>S3010700T</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Student NRIC</t>
+  </si>
+  <si>
+    <t>Student Email</t>
+  </si>
+  <si>
+    <t>Student Mobile</t>
+  </si>
+  <si>
+    <t>Studnet Date Of Birth</t>
+  </si>
+  <si>
+    <t>Student Address</t>
+  </si>
+  <si>
+    <t>Please specify meal restriction</t>
+  </si>
+  <si>
+    <t>EditStudentRecord</t>
+  </si>
+  <si>
+    <t>Verify that user is able to edit student record in TMS application</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Leong Cheng Hao</t>
+  </si>
+  <si>
+    <t>S7076633G</t>
+  </si>
+  <si>
+    <t>LeongChengHao@mailinator.com</t>
+  </si>
+  <si>
+    <t>85400144</t>
+  </si>
+  <si>
+    <t>1991-05-04</t>
+  </si>
+  <si>
+    <t>55 Adams Walk Crescent</t>
+  </si>
+  <si>
+    <t>Gujarati Thali</t>
+  </si>
+  <si>
+    <t>Sawayn Inc</t>
+  </si>
+  <si>
+    <t>JJ25263</t>
+  </si>
+  <si>
+    <t>Edward Kin</t>
+  </si>
+  <si>
+    <t>edwardkin@mailinator.com</t>
+  </si>
+  <si>
+    <t>85956241</t>
+  </si>
+  <si>
+    <t>ClickonViewcourseRunInStudentGrid</t>
+  </si>
+  <si>
+    <t>Verify that user is able to view student record in TMS application</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>S3010700Z</t>
+  </si>
+  <si>
+    <t>AccessActivityLogs</t>
+  </si>
+  <si>
+    <t>AccessActivityLogs in TMS Application</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>AddProgramType</t>
+  </si>
+  <si>
+    <t>AddProgramType in TMS Application</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Program Type</t>
+  </si>
+  <si>
+    <t>Training Type</t>
+  </si>
+  <si>
+    <t>EditProgramType</t>
+  </si>
+  <si>
+    <t>Edit Program Type</t>
+  </si>
+  <si>
+    <t>EditProgramType in TMS Application</t>
+  </si>
+  <si>
+    <t>82</t>
   </si>
 </sst>
 </file>
@@ -1489,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2804,12 +2936,114 @@
         <v>362</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>363</v>
       </c>
       <c r="E77" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>379</v>
+      </c>
+      <c r="B78" t="s">
+        <v>380</v>
+      </c>
+      <c r="C78" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>392</v>
+      </c>
+      <c r="B79" t="s">
+        <v>393</v>
+      </c>
+      <c r="C79" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>407</v>
+      </c>
+      <c r="B80" t="s">
+        <v>408</v>
+      </c>
+      <c r="C80" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>411</v>
+      </c>
+      <c r="B81" t="s">
+        <v>412</v>
+      </c>
+      <c r="C81" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>414</v>
+      </c>
+      <c r="B82" t="s">
+        <v>415</v>
+      </c>
+      <c r="C82" t="s">
+        <v>195</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>419</v>
+      </c>
+      <c r="B83" t="s">
+        <v>421</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2821,11 +3055,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:EI93"/>
+  <dimension ref="A1:DN99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL93" sqref="AL93"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2851,9 +3085,11 @@
     <col min="45" max="45" width="23.109375" customWidth="1"/>
     <col min="46" max="46" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="15" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="1" customFormat="1">
+    <row r="1" spans="1:69" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3040,8 +3276,29 @@
       <c r="BJ1" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="BK1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>391</v>
+      </c>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:69">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3228,8 +3485,29 @@
       <c r="BJ2" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:69">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3416,8 +3694,29 @@
       <c r="BJ3" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:69">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -3604,8 +3903,29 @@
       <c r="BJ4" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ4" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:69">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -3792,8 +4112,29 @@
       <c r="BJ5" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ5" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:69">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -3980,8 +4321,29 @@
       <c r="BJ6" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ6" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="7" spans="1:62">
+    <row r="7" spans="1:69">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4168,8 +4530,29 @@
       <c r="BJ7" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ7" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="8" spans="1:62">
+    <row r="8" spans="1:69">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -4356,8 +4739,29 @@
       <c r="BJ8" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ8" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="9" spans="1:62">
+    <row r="9" spans="1:69">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4544,8 +4948,29 @@
       <c r="BJ9" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ9" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="10" spans="1:62">
+    <row r="10" spans="1:69">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -4732,8 +5157,29 @@
       <c r="BJ10" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ10" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="11" spans="1:62">
+    <row r="11" spans="1:69">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -4920,8 +5366,29 @@
       <c r="BJ11" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ11" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="12" spans="1:62">
+    <row r="12" spans="1:69">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5108,8 +5575,29 @@
       <c r="BJ12" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ12" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="13" spans="1:62">
+    <row r="13" spans="1:69">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -5296,8 +5784,29 @@
       <c r="BJ13" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ13" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="14" spans="1:62">
+    <row r="14" spans="1:69">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -5484,8 +5993,29 @@
       <c r="BJ14" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ14" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="15" spans="1:62">
+    <row r="15" spans="1:69">
       <c r="A15" s="3" t="s">
         <v>94</v>
       </c>
@@ -5672,8 +6202,29 @@
       <c r="BJ15" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ15" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="16" spans="1:62">
+    <row r="16" spans="1:69">
       <c r="A16" s="3" t="s">
         <v>105</v>
       </c>
@@ -5860,8 +6411,29 @@
       <c r="BJ16" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ16" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="17" spans="1:62">
+    <row r="17" spans="1:69">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -6048,8 +6620,29 @@
       <c r="BJ17" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ17" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="18" spans="1:62">
+    <row r="18" spans="1:69">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -6236,8 +6829,29 @@
       <c r="BJ18" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ18" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="19" spans="1:62">
+    <row r="19" spans="1:69">
       <c r="A19" s="3" t="s">
         <v>96</v>
       </c>
@@ -6424,8 +7038,29 @@
       <c r="BJ19" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ19" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="20" spans="1:62">
+    <row r="20" spans="1:69">
       <c r="A20" s="3" t="s">
         <v>98</v>
       </c>
@@ -6612,8 +7247,29 @@
       <c r="BJ20" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ20" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="21" spans="1:62">
+    <row r="21" spans="1:69">
       <c r="A21" s="3" t="s">
         <v>100</v>
       </c>
@@ -6800,8 +7456,29 @@
       <c r="BJ21" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ21" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="22" spans="1:62">
+    <row r="22" spans="1:69">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -6988,8 +7665,29 @@
       <c r="BJ22" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ22" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="23" spans="1:62">
+    <row r="23" spans="1:69">
       <c r="A23" t="s">
         <v>111</v>
       </c>
@@ -7176,8 +7874,29 @@
       <c r="BJ23" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ23" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="24" spans="1:62">
+    <row r="24" spans="1:69">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -7364,8 +8083,29 @@
       <c r="BJ24" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ24" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="25" spans="1:62">
+    <row r="25" spans="1:69">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -7552,8 +8292,29 @@
       <c r="BJ25" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ25" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="26" spans="1:62">
+    <row r="26" spans="1:69">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -7740,8 +8501,29 @@
       <c r="BJ26" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ26" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="27" spans="1:62">
+    <row r="27" spans="1:69">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -7928,8 +8710,29 @@
       <c r="BJ27" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ27" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="28" spans="1:62">
+    <row r="28" spans="1:69">
       <c r="A28" t="s">
         <v>145</v>
       </c>
@@ -8116,8 +8919,29 @@
       <c r="BJ28" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ28" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="29" spans="1:62">
+    <row r="29" spans="1:69">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -8304,8 +9128,29 @@
       <c r="BJ29" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ29" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="30" spans="1:62">
+    <row r="30" spans="1:69">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -8492,8 +9337,29 @@
       <c r="BJ30" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ30" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="31" spans="1:62">
+    <row r="31" spans="1:69">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -8680,8 +9546,29 @@
       <c r="BJ31" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ31" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="32" spans="1:62">
+    <row r="32" spans="1:69">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -8868,8 +9755,29 @@
       <c r="BJ32" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ32" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="33" spans="1:62">
+    <row r="33" spans="1:69">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -9056,8 +9964,29 @@
       <c r="BJ33" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ33" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="34" spans="1:62">
+    <row r="34" spans="1:69">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -9244,8 +10173,29 @@
       <c r="BJ34" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ34" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="35" spans="1:62">
+    <row r="35" spans="1:69">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -9432,8 +10382,29 @@
       <c r="BJ35" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ35" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="36" spans="1:62">
+    <row r="36" spans="1:69">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -9620,8 +10591,29 @@
       <c r="BJ36" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ36" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="37" spans="1:62">
+    <row r="37" spans="1:69">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -9808,8 +10800,29 @@
       <c r="BJ37" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ37" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="38" spans="1:62">
+    <row r="38" spans="1:69">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -9996,8 +11009,29 @@
       <c r="BJ38" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ38" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="39" spans="1:62">
+    <row r="39" spans="1:69">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -10184,8 +11218,29 @@
       <c r="BJ39" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ39" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="40" spans="1:62">
+    <row r="40" spans="1:69">
       <c r="A40" t="s">
         <v>148</v>
       </c>
@@ -10372,8 +11427,29 @@
       <c r="BJ40" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ40" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="41" spans="1:62">
+    <row r="41" spans="1:69">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -10560,8 +11636,29 @@
       <c r="BJ41" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ41" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="42" spans="1:62">
+    <row r="42" spans="1:69">
       <c r="A42" t="s">
         <v>159</v>
       </c>
@@ -10748,8 +11845,29 @@
       <c r="BJ42" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ42" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="43" spans="1:62">
+    <row r="43" spans="1:69">
       <c r="A43" t="s">
         <v>160</v>
       </c>
@@ -10936,8 +12054,29 @@
       <c r="BJ43" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ43" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="44" spans="1:62">
+    <row r="44" spans="1:69">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -11124,8 +12263,29 @@
       <c r="BJ44" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ44" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="45" spans="1:62">
+    <row r="45" spans="1:69">
       <c r="A45" t="s">
         <v>162</v>
       </c>
@@ -11312,8 +12472,29 @@
       <c r="BJ45" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ45" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="46" spans="1:62">
+    <row r="46" spans="1:69">
       <c r="A46" t="s">
         <v>163</v>
       </c>
@@ -11500,8 +12681,29 @@
       <c r="BJ46" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ46" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="47" spans="1:62">
+    <row r="47" spans="1:69">
       <c r="A47" t="s">
         <v>164</v>
       </c>
@@ -11688,8 +12890,29 @@
       <c r="BJ47" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ47" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="48" spans="1:62">
+    <row r="48" spans="1:69">
       <c r="A48" t="s">
         <v>165</v>
       </c>
@@ -11876,8 +13099,29 @@
       <c r="BJ48" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ48" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="49" spans="1:62">
+    <row r="49" spans="1:69">
       <c r="A49" t="s">
         <v>166</v>
       </c>
@@ -12064,8 +13308,29 @@
       <c r="BJ49" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ49" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="50" spans="1:62">
+    <row r="50" spans="1:69">
       <c r="A50" t="s">
         <v>170</v>
       </c>
@@ -12252,8 +13517,29 @@
       <c r="BJ50" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ50" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="51" spans="1:62">
+    <row r="51" spans="1:69">
       <c r="A51" t="s">
         <v>185</v>
       </c>
@@ -12440,8 +13726,29 @@
       <c r="BJ51" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ51" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="52" spans="1:62">
+    <row r="52" spans="1:69">
       <c r="A52" t="s">
         <v>191</v>
       </c>
@@ -12628,8 +13935,29 @@
       <c r="BJ52" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ52" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="53" spans="1:62">
+    <row r="53" spans="1:69">
       <c r="A53" t="s">
         <v>196</v>
       </c>
@@ -12816,8 +14144,29 @@
       <c r="BJ53" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ53" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="54" spans="1:62">
+    <row r="54" spans="1:69">
       <c r="A54" t="s">
         <v>200</v>
       </c>
@@ -13004,8 +14353,29 @@
       <c r="BJ54" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ54" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="55" spans="1:62">
+    <row r="55" spans="1:69">
       <c r="A55" t="s">
         <v>204</v>
       </c>
@@ -13192,8 +14562,29 @@
       <c r="BJ55" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ55" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="56" spans="1:62">
+    <row r="56" spans="1:69">
       <c r="A56" t="s">
         <v>206</v>
       </c>
@@ -13380,8 +14771,29 @@
       <c r="BJ56" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ56" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="57" spans="1:62">
+    <row r="57" spans="1:69">
       <c r="A57" t="s">
         <v>207</v>
       </c>
@@ -13568,8 +14980,29 @@
       <c r="BJ57" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ57" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="58" spans="1:62">
+    <row r="58" spans="1:69">
       <c r="A58" t="s">
         <v>210</v>
       </c>
@@ -13756,8 +15189,29 @@
       <c r="BJ58" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ58" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="59" spans="1:62">
+    <row r="59" spans="1:69">
       <c r="A59" t="s">
         <v>213</v>
       </c>
@@ -13944,8 +15398,29 @@
       <c r="BJ59" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ59" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="60" spans="1:62">
+    <row r="60" spans="1:69">
       <c r="A60" s="3" t="s">
         <v>222</v>
       </c>
@@ -14132,8 +15607,29 @@
       <c r="BJ60" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ60" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="61" spans="1:62">
+    <row r="61" spans="1:69">
       <c r="A61" s="3" t="s">
         <v>219</v>
       </c>
@@ -14320,8 +15816,29 @@
       <c r="BJ61" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ61" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="62" spans="1:62">
+    <row r="62" spans="1:69">
       <c r="A62" s="3" t="s">
         <v>220</v>
       </c>
@@ -14508,8 +16025,29 @@
       <c r="BJ62" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ62" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="63" spans="1:62">
+    <row r="63" spans="1:69">
       <c r="A63" s="3" t="s">
         <v>221</v>
       </c>
@@ -14696,8 +16234,29 @@
       <c r="BJ63" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK63" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL63" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM63" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN63" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO63" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP63" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ63" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="64" spans="1:62">
+    <row r="64" spans="1:69">
       <c r="A64" s="3" t="s">
         <v>223</v>
       </c>
@@ -14884,8 +16443,29 @@
       <c r="BJ64" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK64" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL64" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM64" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN64" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO64" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP64" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ64" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="65" spans="1:139">
+    <row r="65" spans="1:118">
       <c r="A65" s="3" t="s">
         <v>224</v>
       </c>
@@ -15072,8 +16652,29 @@
       <c r="BJ65" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ65" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="66" spans="1:139">
+    <row r="66" spans="1:118">
       <c r="A66" s="3" t="s">
         <v>225</v>
       </c>
@@ -15260,8 +16861,29 @@
       <c r="BJ66" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ66" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="67" spans="1:139">
+    <row r="67" spans="1:118">
       <c r="A67" s="3" t="s">
         <v>226</v>
       </c>
@@ -15448,8 +17070,29 @@
       <c r="BJ67" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ67" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="68" spans="1:139">
+    <row r="68" spans="1:118">
       <c r="A68" s="3" t="s">
         <v>227</v>
       </c>
@@ -15636,8 +17279,29 @@
       <c r="BJ68" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK68" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL68" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM68" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN68" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO68" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP68" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ68" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="69" spans="1:139">
+    <row r="69" spans="1:118">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -15824,8 +17488,29 @@
       <c r="BJ69" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ69" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="70" spans="1:139">
+    <row r="70" spans="1:118">
       <c r="A70" t="s">
         <v>234</v>
       </c>
@@ -16012,8 +17697,29 @@
       <c r="BJ70" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ70" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="71" spans="1:139">
+    <row r="71" spans="1:118">
       <c r="A71" t="s">
         <v>242</v>
       </c>
@@ -16200,8 +17906,29 @@
       <c r="BJ71" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ71" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="72" spans="1:139">
+    <row r="72" spans="1:118">
       <c r="A72" t="s">
         <v>265</v>
       </c>
@@ -16388,8 +18115,29 @@
       <c r="BJ72" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ72" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="73" spans="1:139">
+    <row r="73" spans="1:118">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -16576,8 +18324,29 @@
       <c r="BJ73" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ73" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="74" spans="1:139">
+    <row r="74" spans="1:118">
       <c r="A74" t="s">
         <v>273</v>
       </c>
@@ -16764,8 +18533,29 @@
       <c r="BJ74" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ74" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="75" spans="1:139">
+    <row r="75" spans="1:118">
       <c r="A75" t="s">
         <v>280</v>
       </c>
@@ -16952,8 +18742,29 @@
       <c r="BJ75" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ75" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="76" spans="1:139">
+    <row r="76" spans="1:118">
       <c r="A76" t="s">
         <v>282</v>
       </c>
@@ -17140,8 +18951,29 @@
       <c r="BJ76" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ76" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="77" spans="1:139">
+    <row r="77" spans="1:118">
       <c r="A77" t="s">
         <v>284</v>
       </c>
@@ -17328,11 +19160,32 @@
       <c r="BJ77" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="EI77" t="s">
+      <c r="BK77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="DN77" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="1:139">
+    <row r="78" spans="1:118">
       <c r="A78" t="s">
         <v>286</v>
       </c>
@@ -17519,11 +19372,32 @@
       <c r="BJ78" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="EI78" t="s">
+      <c r="BK78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="DN78" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="79" spans="1:139">
+    <row r="79" spans="1:118">
       <c r="A79" t="s">
         <v>290</v>
       </c>
@@ -17710,8 +19584,29 @@
       <c r="BJ79" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ79" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="80" spans="1:139">
+    <row r="80" spans="1:118">
       <c r="A80" t="s">
         <v>290</v>
       </c>
@@ -17898,8 +19793,29 @@
       <c r="BJ80" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ80" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="81" spans="1:139">
+    <row r="81" spans="1:118">
       <c r="A81" t="s">
         <v>290</v>
       </c>
@@ -18086,8 +20002,29 @@
       <c r="BJ81" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ81" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="82" spans="1:139">
+    <row r="82" spans="1:118">
       <c r="A82" t="s">
         <v>292</v>
       </c>
@@ -18274,8 +20211,29 @@
       <c r="BJ82" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ82" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="83" spans="1:139">
+    <row r="83" spans="1:118">
       <c r="A83" t="s">
         <v>294</v>
       </c>
@@ -18462,11 +20420,32 @@
       <c r="BJ83" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="EI83" t="s">
+      <c r="BK83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="DN83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:139">
+    <row r="84" spans="1:118">
       <c r="A84" t="s">
         <v>296</v>
       </c>
@@ -18653,11 +20632,32 @@
       <c r="BJ84" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="EI84" t="s">
+      <c r="BK84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="DN84" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="85" spans="1:139">
+    <row r="85" spans="1:118">
       <c r="A85" t="s">
         <v>329</v>
       </c>
@@ -18844,8 +20844,29 @@
       <c r="BJ85" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ85" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="86" spans="1:139">
+    <row r="86" spans="1:118">
       <c r="A86" t="s">
         <v>331</v>
       </c>
@@ -19032,8 +21053,29 @@
       <c r="BJ86" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ86" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="87" spans="1:139">
+    <row r="87" spans="1:118">
       <c r="A87" t="s">
         <v>343</v>
       </c>
@@ -19220,8 +21262,29 @@
       <c r="BJ87" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ87" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="88" spans="1:139">
+    <row r="88" spans="1:118">
       <c r="A88" t="s">
         <v>346</v>
       </c>
@@ -19408,8 +21471,29 @@
       <c r="BJ88" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ88" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="89" spans="1:139">
+    <row r="89" spans="1:118">
       <c r="A89" t="s">
         <v>349</v>
       </c>
@@ -19596,8 +21680,29 @@
       <c r="BJ89" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ89" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="90" spans="1:139">
+    <row r="90" spans="1:118">
       <c r="A90" t="s">
         <v>350</v>
       </c>
@@ -19784,8 +21889,29 @@
       <c r="BJ90" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ90" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="91" spans="1:139">
+    <row r="91" spans="1:118">
       <c r="A91" t="s">
         <v>351</v>
       </c>
@@ -19972,8 +22098,29 @@
       <c r="BJ91" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ91" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="92" spans="1:139">
+    <row r="92" spans="1:118">
       <c r="A92" t="s">
         <v>352</v>
       </c>
@@ -20160,13 +22307,34 @@
       <c r="BJ92" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ92" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="93" spans="1:139">
+    <row r="93" spans="1:118">
       <c r="A93" t="s">
         <v>361</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="C93" t="s">
         <v>81</v>
@@ -20268,7 +22436,7 @@
         <v>370</v>
       </c>
       <c r="AJ93" s="3" t="s">
-        <v>84</v>
+        <v>383</v>
       </c>
       <c r="AK93" s="3" t="s">
         <v>371</v>
@@ -20316,43 +22484,1318 @@
         <v>365</v>
       </c>
       <c r="AZ93" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="BA93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ93" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:118">
+      <c r="A94" t="s">
+        <v>379</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" t="s">
+        <v>81</v>
+      </c>
+      <c r="D94" t="s">
+        <v>82</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F94" t="s">
+        <v>130</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE94" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF94" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG94" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH94" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AI94" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="AJ94" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK94" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL94" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AM94" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="AN94" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AO94" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP94" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ94" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AR94" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AS94" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AT94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY94" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ94" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="BA93" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB93" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC93" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD93" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE93" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF93" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG93" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH93" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BI93" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ93" s="3" t="s">
+      <c r="BA94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ94" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:118">
+      <c r="A95" t="s">
+        <v>392</v>
+      </c>
+      <c r="B95" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" t="s">
+        <v>81</v>
+      </c>
+      <c r="D95" t="s">
+        <v>82</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F95" t="s">
+        <v>131</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI95" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ95" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="AK95" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="AL95" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="AM95" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="AN95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK95" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="BL95" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="BM95" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="BN95" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="BO95" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="BP95" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="BQ95" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:118">
+      <c r="A96" t="s">
+        <v>407</v>
+      </c>
+      <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96" t="s">
+        <v>82</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F96" t="s">
+        <v>131</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD96" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE96" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF96" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG96" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH96" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AI96" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="AJ96" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK96" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL96" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AM96" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="AN96" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AO96" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP96" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ96" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AR96" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AS96" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AT96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY96" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ96" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BA96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ96" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:69">
+      <c r="A97" t="s">
+        <v>411</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97" t="s">
+        <v>82</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F97" t="s">
+        <v>131</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ97" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:69">
+      <c r="A98" t="s">
+        <v>414</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98" t="s">
+        <v>82</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F98" t="s">
+        <v>133</v>
+      </c>
+      <c r="G98" t="s">
+        <v>417</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ98" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:69">
+      <c r="A99" t="s">
+        <v>419</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" t="s">
+        <v>82</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F99" t="s">
+        <v>133</v>
+      </c>
+      <c r="G99" t="s">
+        <v>417</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ99" s="3" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EI77:EI78 EI83:EI84" xr:uid="{0B9943E6-E268-434F-9E4C-123BB136FD63}">
-      <formula1>$EI$45:$EI$48</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DN77:DN78 DN83:DN84" xr:uid="{0B9943E6-E268-434F-9E4C-123BB136FD63}">
+      <formula1>$DN$45:$DN$48</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gitstuff\TMS\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086759DB-DC87-4152-B064-63BE3D2693C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E77D07-D1A8-4468-8F79-8AB839BC56A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7250" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7620" uniqueCount="438">
   <si>
     <t>testname</t>
   </si>
@@ -1290,6 +1290,51 @@
   </si>
   <si>
     <t>82</t>
+  </si>
+  <si>
+    <t>DownloadTraineeListTest</t>
+  </si>
+  <si>
+    <t>Check the DownloadTraineeListTest Fuctionality</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>CertificateTest</t>
+  </si>
+  <si>
+    <t>Chcek the Certificate TestFuctionality</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>AccessActivityListTab</t>
+  </si>
+  <si>
+    <t>AccessTPGateWayResponseListTab</t>
+  </si>
+  <si>
+    <t>Verify user is able to access AccessTPGateWayResponseListTab</t>
+  </si>
+  <si>
+    <t>Verify user is able to access AccessActivityListTab</t>
+  </si>
+  <si>
+    <t>AccessCancelledTraineeListTab</t>
+  </si>
+  <si>
+    <t>Verify user is able to access AccessCancelledTraineeListTab</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
   </si>
 </sst>
 </file>
@@ -1621,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3038,12 +3083,97 @@
         <v>421</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>422</v>
       </c>
       <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>423</v>
+      </c>
+      <c r="B84" t="s">
+        <v>424</v>
+      </c>
+      <c r="C84" t="s">
+        <v>195</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>426</v>
+      </c>
+      <c r="B85" t="s">
+        <v>427</v>
+      </c>
+      <c r="C85" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>433</v>
+      </c>
+      <c r="B86" t="s">
+        <v>434</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>430</v>
+      </c>
+      <c r="B87" t="s">
+        <v>431</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>429</v>
+      </c>
+      <c r="B88" t="s">
+        <v>432</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3055,11 +3185,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DN99"/>
+  <dimension ref="A1:DN104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -23588,7 +23718,7 @@
         <v>419</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="C99" t="s">
         <v>81</v>
@@ -23792,8 +23922,1053 @@
         <v>84</v>
       </c>
     </row>
+    <row r="100" spans="1:69">
+      <c r="A100" t="s">
+        <v>423</v>
+      </c>
+      <c r="B100" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" t="s">
+        <v>82</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F100" t="s">
+        <v>133</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ100" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:69">
+      <c r="A101" t="s">
+        <v>426</v>
+      </c>
+      <c r="B101" t="s">
+        <v>195</v>
+      </c>
+      <c r="C101" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F101" t="s">
+        <v>133</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ101" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:69">
+      <c r="A102" t="s">
+        <v>433</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102" t="s">
+        <v>82</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F102" t="s">
+        <v>133</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ102" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:69">
+      <c r="A103" t="s">
+        <v>430</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" t="s">
+        <v>82</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F103" t="s">
+        <v>133</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ103" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:69">
+      <c r="A104" t="s">
+        <v>429</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104" t="s">
+        <v>82</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F104" t="s">
+        <v>133</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ104" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DN77:DN78 DN83:DN84" xr:uid="{0B9943E6-E268-434F-9E4C-123BB136FD63}">
       <formula1>$DN$45:$DN$48</formula1>
     </dataValidation>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gitstuff\TMS\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E77D07-D1A8-4468-8F79-8AB839BC56A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F66211-21ED-4968-AEE0-81272409A25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7620" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8132" uniqueCount="458">
   <si>
     <t>testname</t>
   </si>
@@ -1335,6 +1335,66 @@
   </si>
   <si>
     <t>87</t>
+  </si>
+  <si>
+    <t>AccessDataImportCourseRuns</t>
+  </si>
+  <si>
+    <t>Verify user is able to access AccessDataImportCourseRuns</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Data Import</t>
+  </si>
+  <si>
+    <t>Course Run</t>
+  </si>
+  <si>
+    <t>AccessDataImportStudentEnrollment</t>
+  </si>
+  <si>
+    <t>AccessDataImportSyncCourseRunTPG</t>
+  </si>
+  <si>
+    <t>AccessDataImportSyncStudentEnrolmentTPG</t>
+  </si>
+  <si>
+    <t>Sync Course Run - TPG</t>
+  </si>
+  <si>
+    <t>Sync Student Enrolment - TPG</t>
+  </si>
+  <si>
+    <t>Verify user is able to access AccessDataImportStudentEnrollment</t>
+  </si>
+  <si>
+    <t>Verify user is able to access AccessDataImportSyncCourseRunTPG</t>
+  </si>
+  <si>
+    <t>Verify user is able to access AccessDataImportSyncStudentEnrolmentTPG</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Course Run Id</t>
+  </si>
+  <si>
+    <t>enrolment_id</t>
+  </si>
+  <si>
+    <t>438042</t>
+  </si>
+  <si>
+    <t>ENR-2201-014615</t>
   </si>
 </sst>
 </file>
@@ -1666,10 +1726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:A88"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3134,7 +3194,7 @@
         <v>434</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>435</v>
@@ -3151,7 +3211,7 @@
         <v>431</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>436</v>
@@ -3168,12 +3228,80 @@
         <v>432</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>437</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>438</v>
+      </c>
+      <c r="B89" t="s">
+        <v>439</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>443</v>
+      </c>
+      <c r="B90" t="s">
+        <v>448</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>444</v>
+      </c>
+      <c r="B91" t="s">
+        <v>449</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>445</v>
+      </c>
+      <c r="B92" t="s">
+        <v>450</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3185,11 +3313,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DN104"/>
+  <dimension ref="A1:DN108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BS109" sqref="BS109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3217,9 +3345,10 @@
     <col min="48" max="48" width="15" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="1" customFormat="1">
+    <row r="1" spans="1:71" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3427,8 +3556,14 @@
       <c r="BQ1" s="1" t="s">
         <v>391</v>
       </c>
+      <c r="BR1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>455</v>
+      </c>
     </row>
-    <row r="2" spans="1:69">
+    <row r="2" spans="1:71">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3636,8 +3771,14 @@
       <c r="BQ2" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:71">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3845,8 +3986,14 @@
       <c r="BQ3" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:71">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -4054,8 +4201,14 @@
       <c r="BQ4" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS4" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:71">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -4263,8 +4416,14 @@
       <c r="BQ5" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS5" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:71">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -4472,8 +4631,14 @@
       <c r="BQ6" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS6" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:71">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4681,8 +4846,14 @@
       <c r="BQ7" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS7" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:71">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -4890,8 +5061,14 @@
       <c r="BQ8" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS8" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:71">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5099,8 +5276,14 @@
       <c r="BQ9" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS9" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:71">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -5308,8 +5491,14 @@
       <c r="BQ10" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS10" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:71">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5517,8 +5706,14 @@
       <c r="BQ11" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS11" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="12" spans="1:69">
+    <row r="12" spans="1:71">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5726,8 +5921,14 @@
       <c r="BQ12" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS12" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="13" spans="1:69">
+    <row r="13" spans="1:71">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -5935,8 +6136,14 @@
       <c r="BQ13" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS13" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="14" spans="1:69">
+    <row r="14" spans="1:71">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -6144,8 +6351,14 @@
       <c r="BQ14" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS14" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="15" spans="1:69">
+    <row r="15" spans="1:71">
       <c r="A15" s="3" t="s">
         <v>94</v>
       </c>
@@ -6353,8 +6566,14 @@
       <c r="BQ15" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS15" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="16" spans="1:69">
+    <row r="16" spans="1:71">
       <c r="A16" s="3" t="s">
         <v>105</v>
       </c>
@@ -6562,8 +6781,14 @@
       <c r="BQ16" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS16" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="17" spans="1:69">
+    <row r="17" spans="1:71">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -6771,8 +6996,14 @@
       <c r="BQ17" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS17" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="18" spans="1:69">
+    <row r="18" spans="1:71">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -6980,8 +7211,14 @@
       <c r="BQ18" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS18" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="19" spans="1:69">
+    <row r="19" spans="1:71">
       <c r="A19" s="3" t="s">
         <v>96</v>
       </c>
@@ -7189,8 +7426,14 @@
       <c r="BQ19" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS19" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="20" spans="1:69">
+    <row r="20" spans="1:71">
       <c r="A20" s="3" t="s">
         <v>98</v>
       </c>
@@ -7398,8 +7641,14 @@
       <c r="BQ20" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS20" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="21" spans="1:69">
+    <row r="21" spans="1:71">
       <c r="A21" s="3" t="s">
         <v>100</v>
       </c>
@@ -7607,8 +7856,14 @@
       <c r="BQ21" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS21" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="22" spans="1:69">
+    <row r="22" spans="1:71">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -7816,8 +8071,14 @@
       <c r="BQ22" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS22" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="23" spans="1:69">
+    <row r="23" spans="1:71">
       <c r="A23" t="s">
         <v>111</v>
       </c>
@@ -8025,8 +8286,14 @@
       <c r="BQ23" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS23" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="24" spans="1:69">
+    <row r="24" spans="1:71">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -8234,8 +8501,14 @@
       <c r="BQ24" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS24" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="25" spans="1:69">
+    <row r="25" spans="1:71">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -8443,8 +8716,14 @@
       <c r="BQ25" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS25" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="26" spans="1:69">
+    <row r="26" spans="1:71">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -8652,8 +8931,14 @@
       <c r="BQ26" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS26" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="27" spans="1:69">
+    <row r="27" spans="1:71">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -8861,8 +9146,14 @@
       <c r="BQ27" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS27" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="28" spans="1:69">
+    <row r="28" spans="1:71">
       <c r="A28" t="s">
         <v>145</v>
       </c>
@@ -9070,8 +9361,14 @@
       <c r="BQ28" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS28" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="29" spans="1:69">
+    <row r="29" spans="1:71">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -9279,8 +9576,14 @@
       <c r="BQ29" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS29" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="30" spans="1:69">
+    <row r="30" spans="1:71">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -9488,8 +9791,14 @@
       <c r="BQ30" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS30" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="31" spans="1:69">
+    <row r="31" spans="1:71">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -9697,8 +10006,14 @@
       <c r="BQ31" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS31" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="32" spans="1:69">
+    <row r="32" spans="1:71">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -9906,8 +10221,14 @@
       <c r="BQ32" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS32" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="33" spans="1:69">
+    <row r="33" spans="1:71">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -10115,8 +10436,14 @@
       <c r="BQ33" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS33" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="34" spans="1:69">
+    <row r="34" spans="1:71">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -10324,8 +10651,14 @@
       <c r="BQ34" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS34" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="35" spans="1:69">
+    <row r="35" spans="1:71">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -10533,8 +10866,14 @@
       <c r="BQ35" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS35" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="36" spans="1:69">
+    <row r="36" spans="1:71">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -10742,8 +11081,14 @@
       <c r="BQ36" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS36" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="37" spans="1:69">
+    <row r="37" spans="1:71">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -10951,8 +11296,14 @@
       <c r="BQ37" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS37" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="38" spans="1:69">
+    <row r="38" spans="1:71">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -11160,8 +11511,14 @@
       <c r="BQ38" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS38" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="39" spans="1:69">
+    <row r="39" spans="1:71">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -11369,8 +11726,14 @@
       <c r="BQ39" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS39" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="40" spans="1:69">
+    <row r="40" spans="1:71">
       <c r="A40" t="s">
         <v>148</v>
       </c>
@@ -11578,8 +11941,14 @@
       <c r="BQ40" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS40" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="41" spans="1:69">
+    <row r="41" spans="1:71">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -11787,8 +12156,14 @@
       <c r="BQ41" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS41" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="42" spans="1:69">
+    <row r="42" spans="1:71">
       <c r="A42" t="s">
         <v>159</v>
       </c>
@@ -11996,8 +12371,14 @@
       <c r="BQ42" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS42" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="43" spans="1:69">
+    <row r="43" spans="1:71">
       <c r="A43" t="s">
         <v>160</v>
       </c>
@@ -12205,8 +12586,14 @@
       <c r="BQ43" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS43" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="44" spans="1:69">
+    <row r="44" spans="1:71">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -12414,8 +12801,14 @@
       <c r="BQ44" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS44" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="45" spans="1:69">
+    <row r="45" spans="1:71">
       <c r="A45" t="s">
         <v>162</v>
       </c>
@@ -12623,8 +13016,14 @@
       <c r="BQ45" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS45" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="46" spans="1:69">
+    <row r="46" spans="1:71">
       <c r="A46" t="s">
         <v>163</v>
       </c>
@@ -12832,8 +13231,14 @@
       <c r="BQ46" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS46" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="47" spans="1:69">
+    <row r="47" spans="1:71">
       <c r="A47" t="s">
         <v>164</v>
       </c>
@@ -13041,8 +13446,14 @@
       <c r="BQ47" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS47" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="48" spans="1:69">
+    <row r="48" spans="1:71">
       <c r="A48" t="s">
         <v>165</v>
       </c>
@@ -13250,8 +13661,14 @@
       <c r="BQ48" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS48" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="49" spans="1:69">
+    <row r="49" spans="1:71">
       <c r="A49" t="s">
         <v>166</v>
       </c>
@@ -13459,8 +13876,14 @@
       <c r="BQ49" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS49" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="50" spans="1:69">
+    <row r="50" spans="1:71">
       <c r="A50" t="s">
         <v>170</v>
       </c>
@@ -13668,8 +14091,14 @@
       <c r="BQ50" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS50" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="51" spans="1:69">
+    <row r="51" spans="1:71">
       <c r="A51" t="s">
         <v>185</v>
       </c>
@@ -13877,8 +14306,14 @@
       <c r="BQ51" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS51" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="52" spans="1:69">
+    <row r="52" spans="1:71">
       <c r="A52" t="s">
         <v>191</v>
       </c>
@@ -14086,8 +14521,14 @@
       <c r="BQ52" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS52" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="53" spans="1:69">
+    <row r="53" spans="1:71">
       <c r="A53" t="s">
         <v>196</v>
       </c>
@@ -14295,8 +14736,14 @@
       <c r="BQ53" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS53" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="54" spans="1:69">
+    <row r="54" spans="1:71">
       <c r="A54" t="s">
         <v>200</v>
       </c>
@@ -14504,8 +14951,14 @@
       <c r="BQ54" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS54" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="55" spans="1:69">
+    <row r="55" spans="1:71">
       <c r="A55" t="s">
         <v>204</v>
       </c>
@@ -14713,8 +15166,14 @@
       <c r="BQ55" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS55" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="56" spans="1:69">
+    <row r="56" spans="1:71">
       <c r="A56" t="s">
         <v>206</v>
       </c>
@@ -14922,8 +15381,14 @@
       <c r="BQ56" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS56" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="57" spans="1:69">
+    <row r="57" spans="1:71">
       <c r="A57" t="s">
         <v>207</v>
       </c>
@@ -15131,8 +15596,14 @@
       <c r="BQ57" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS57" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="58" spans="1:69">
+    <row r="58" spans="1:71">
       <c r="A58" t="s">
         <v>210</v>
       </c>
@@ -15340,8 +15811,14 @@
       <c r="BQ58" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS58" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="59" spans="1:69">
+    <row r="59" spans="1:71">
       <c r="A59" t="s">
         <v>213</v>
       </c>
@@ -15549,8 +16026,14 @@
       <c r="BQ59" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS59" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="60" spans="1:69">
+    <row r="60" spans="1:71">
       <c r="A60" s="3" t="s">
         <v>222</v>
       </c>
@@ -15758,8 +16241,14 @@
       <c r="BQ60" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS60" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="61" spans="1:69">
+    <row r="61" spans="1:71">
       <c r="A61" s="3" t="s">
         <v>219</v>
       </c>
@@ -15967,8 +16456,14 @@
       <c r="BQ61" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS61" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="62" spans="1:69">
+    <row r="62" spans="1:71">
       <c r="A62" s="3" t="s">
         <v>220</v>
       </c>
@@ -16176,8 +16671,14 @@
       <c r="BQ62" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS62" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="63" spans="1:69">
+    <row r="63" spans="1:71">
       <c r="A63" s="3" t="s">
         <v>221</v>
       </c>
@@ -16385,8 +16886,14 @@
       <c r="BQ63" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR63" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS63" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="64" spans="1:69">
+    <row r="64" spans="1:71">
       <c r="A64" s="3" t="s">
         <v>223</v>
       </c>
@@ -16592,6 +17099,12 @@
         <v>84</v>
       </c>
       <c r="BQ64" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR64" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS64" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -16803,6 +17316,12 @@
       <c r="BQ65" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS65" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="66" spans="1:118">
       <c r="A66" s="3" t="s">
@@ -17012,6 +17531,12 @@
       <c r="BQ66" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS66" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="67" spans="1:118">
       <c r="A67" s="3" t="s">
@@ -17221,6 +17746,12 @@
       <c r="BQ67" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS67" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="68" spans="1:118">
       <c r="A68" s="3" t="s">
@@ -17430,6 +17961,12 @@
       <c r="BQ68" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR68" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS68" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="69" spans="1:118">
       <c r="A69" t="s">
@@ -17639,6 +18176,12 @@
       <c r="BQ69" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS69" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="70" spans="1:118">
       <c r="A70" t="s">
@@ -17848,6 +18391,12 @@
       <c r="BQ70" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS70" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="71" spans="1:118">
       <c r="A71" t="s">
@@ -18057,6 +18606,12 @@
       <c r="BQ71" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS71" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="72" spans="1:118">
       <c r="A72" t="s">
@@ -18266,6 +18821,12 @@
       <c r="BQ72" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS72" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="73" spans="1:118">
       <c r="A73" t="s">
@@ -18475,6 +19036,12 @@
       <c r="BQ73" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS73" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="74" spans="1:118">
       <c r="A74" t="s">
@@ -18684,6 +19251,12 @@
       <c r="BQ74" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS74" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="75" spans="1:118">
       <c r="A75" t="s">
@@ -18893,6 +19466,12 @@
       <c r="BQ75" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS75" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="76" spans="1:118">
       <c r="A76" t="s">
@@ -19102,6 +19681,12 @@
       <c r="BQ76" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS76" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="77" spans="1:118">
       <c r="A77" t="s">
@@ -19311,6 +19896,12 @@
       <c r="BQ77" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS77" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="DN77" t="s">
         <v>305</v>
       </c>
@@ -19523,6 +20114,12 @@
       <c r="BQ78" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS78" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="DN78" t="s">
         <v>308</v>
       </c>
@@ -19735,6 +20332,12 @@
       <c r="BQ79" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS79" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="80" spans="1:118">
       <c r="A80" t="s">
@@ -19944,6 +20547,12 @@
       <c r="BQ80" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS80" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="81" spans="1:118">
       <c r="A81" t="s">
@@ -20153,6 +20762,12 @@
       <c r="BQ81" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS81" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="82" spans="1:118">
       <c r="A82" t="s">
@@ -20362,6 +20977,12 @@
       <c r="BQ82" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS82" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="83" spans="1:118">
       <c r="A83" t="s">
@@ -20571,6 +21192,12 @@
       <c r="BQ83" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS83" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="DN83" t="s">
         <v>81</v>
       </c>
@@ -20783,6 +21410,12 @@
       <c r="BQ84" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS84" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="DN84" t="s">
         <v>328</v>
       </c>
@@ -20995,6 +21628,12 @@
       <c r="BQ85" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS85" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="86" spans="1:118">
       <c r="A86" t="s">
@@ -21204,6 +21843,12 @@
       <c r="BQ86" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS86" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="87" spans="1:118">
       <c r="A87" t="s">
@@ -21413,6 +22058,12 @@
       <c r="BQ87" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS87" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="88" spans="1:118">
       <c r="A88" t="s">
@@ -21622,6 +22273,12 @@
       <c r="BQ88" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS88" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="89" spans="1:118">
       <c r="A89" t="s">
@@ -21831,6 +22488,12 @@
       <c r="BQ89" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS89" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="90" spans="1:118">
       <c r="A90" t="s">
@@ -22040,6 +22703,12 @@
       <c r="BQ90" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS90" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="91" spans="1:118">
       <c r="A91" t="s">
@@ -22249,6 +22918,12 @@
       <c r="BQ91" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS91" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="92" spans="1:118">
       <c r="A92" t="s">
@@ -22458,6 +23133,12 @@
       <c r="BQ92" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS92" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="93" spans="1:118">
       <c r="A93" t="s">
@@ -22667,6 +23348,12 @@
       <c r="BQ93" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS93" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="94" spans="1:118">
       <c r="A94" t="s">
@@ -22876,6 +23563,12 @@
       <c r="BQ94" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR94" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS94" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="95" spans="1:118">
       <c r="A95" t="s">
@@ -23085,6 +23778,12 @@
       <c r="BQ95" s="3" t="s">
         <v>401</v>
       </c>
+      <c r="BR95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS95" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="96" spans="1:118">
       <c r="A96" t="s">
@@ -23294,8 +23993,14 @@
       <c r="BQ96" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS96" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="97" spans="1:69">
+    <row r="97" spans="1:71">
       <c r="A97" t="s">
         <v>411</v>
       </c>
@@ -23503,8 +24208,14 @@
       <c r="BQ97" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR97" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS97" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="98" spans="1:69">
+    <row r="98" spans="1:71">
       <c r="A98" t="s">
         <v>414</v>
       </c>
@@ -23712,8 +24423,14 @@
       <c r="BQ98" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR98" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS98" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="99" spans="1:69">
+    <row r="99" spans="1:71">
       <c r="A99" t="s">
         <v>419</v>
       </c>
@@ -23921,8 +24638,14 @@
       <c r="BQ99" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS99" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="100" spans="1:69">
+    <row r="100" spans="1:71">
       <c r="A100" t="s">
         <v>423</v>
       </c>
@@ -24130,8 +24853,14 @@
       <c r="BQ100" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS100" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="101" spans="1:69">
+    <row r="101" spans="1:71">
       <c r="A101" t="s">
         <v>426</v>
       </c>
@@ -24339,13 +25068,19 @@
       <c r="BQ101" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS101" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="102" spans="1:69">
+    <row r="102" spans="1:71">
       <c r="A102" t="s">
         <v>433</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="C102" t="s">
         <v>81</v>
@@ -24548,13 +25283,19 @@
       <c r="BQ102" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR102" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS102" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="103" spans="1:69">
+    <row r="103" spans="1:71">
       <c r="A103" t="s">
         <v>430</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="C103" t="s">
         <v>81</v>
@@ -24757,13 +25498,19 @@
       <c r="BQ103" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BR103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS103" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="104" spans="1:69">
+    <row r="104" spans="1:71">
       <c r="A104" t="s">
         <v>429</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="C104" t="s">
         <v>81</v>
@@ -24965,6 +25712,872 @@
       </c>
       <c r="BQ104" s="3" t="s">
         <v>84</v>
+      </c>
+      <c r="BR104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS104" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:71">
+      <c r="A105" t="s">
+        <v>438</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>81</v>
+      </c>
+      <c r="D105" t="s">
+        <v>82</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F105" t="s">
+        <v>441</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS105" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:71">
+      <c r="A106" t="s">
+        <v>443</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>81</v>
+      </c>
+      <c r="D106" t="s">
+        <v>82</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F106" t="s">
+        <v>441</v>
+      </c>
+      <c r="G106" t="s">
+        <v>130</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS106" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:71">
+      <c r="A107" t="s">
+        <v>444</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" t="s">
+        <v>82</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F107" t="s">
+        <v>441</v>
+      </c>
+      <c r="G107" t="s">
+        <v>446</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR107" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="BS107" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:71">
+      <c r="A108" t="s">
+        <v>445</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>81</v>
+      </c>
+      <c r="D108" t="s">
+        <v>82</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F108" t="s">
+        <v>441</v>
+      </c>
+      <c r="G108" t="s">
+        <v>447</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR108" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS108" s="3" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
